--- a/robots/temp_files/robots.xlsx
+++ b/robots/temp_files/robots.xlsx
@@ -7,11 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="13" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BB" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="S3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="23" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="B3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="B4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="B2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="B1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="BB" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,16 +459,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>B4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -514,16 +513,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>B3</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -532,96 +531,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Модель</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Версия</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Количество за неделю</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3S</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1S</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>S3</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2S</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -658,12 +567,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XS</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -676,12 +585,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>B1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>B2</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -693,13 +602,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,33 +639,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B3</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>XS</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
